--- a/VaccineAllocation/data_processing/death_files.xlsx
+++ b/VaccineAllocation/data_processing/death_files.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nazlicanarslan/Desktop/github_clones/COVID19-vaccine/VaccineAllocation/data_processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CD510B-C4E4-B345-BB64-2CC6565163A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1387704-434C-994A-BD98-9CC32A64BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="27640" windowHeight="15440" xr2:uid="{F86C558C-A598-1343-96FD-3802E6A1F7D0}"/>
+    <workbookView xWindow="36340" yWindow="6700" windowWidth="27640" windowHeight="15440" xr2:uid="{F86C558C-A598-1343-96FD-3802E6A1F7D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -77,13 +77,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F8D11D-C20F-C047-89C3-18D467C561B1}">
-  <dimension ref="A1:D687"/>
+  <dimension ref="A1:D778"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A753" workbookViewId="0">
+      <selection activeCell="G769" sqref="G769"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6270,7 +6296,7 @@
         <v>44410</v>
       </c>
       <c r="B533">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C533">
         <v>3</v>
@@ -6292,7 +6318,7 @@
         <v>44412</v>
       </c>
       <c r="B535">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C535">
         <v>6</v>
@@ -6523,7 +6549,7 @@
         <v>44433</v>
       </c>
       <c r="B556">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C556">
         <v>6</v>
@@ -6952,7 +6978,7 @@
         <v>44472</v>
       </c>
       <c r="B595">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C595">
         <v>5</v>
@@ -7084,7 +7110,7 @@
         <v>44484</v>
       </c>
       <c r="B607">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C607">
         <v>4</v>
@@ -7106,7 +7132,7 @@
         <v>44486</v>
       </c>
       <c r="B609">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C609">
         <v>3</v>
@@ -7238,7 +7264,7 @@
         <v>44498</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621">
         <v>0</v>
@@ -7249,7 +7275,7 @@
         <v>44499</v>
       </c>
       <c r="B622">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C622">
         <v>4</v>
@@ -7337,7 +7363,7 @@
         <v>44507</v>
       </c>
       <c r="B630">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C630">
         <v>1</v>
@@ -7601,7 +7627,7 @@
         <v>44531</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C654">
         <v>1</v>
@@ -7689,7 +7715,7 @@
         <v>44539</v>
       </c>
       <c r="B662">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C662">
         <v>6</v>
@@ -7711,7 +7737,7 @@
         <v>44541</v>
       </c>
       <c r="B664">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664">
         <v>1</v>
@@ -7755,7 +7781,7 @@
         <v>44545</v>
       </c>
       <c r="B668">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C668">
         <v>1</v>
@@ -7777,7 +7803,7 @@
         <v>44547</v>
       </c>
       <c r="B670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670">
         <v>1</v>
@@ -7854,7 +7880,7 @@
         <v>44554</v>
       </c>
       <c r="B677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -7876,7 +7902,7 @@
         <v>44556</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C679">
         <v>0</v>
@@ -7920,7 +7946,7 @@
         <v>44560</v>
       </c>
       <c r="B683">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C683">
         <v>1</v>
@@ -7931,7 +7957,7 @@
         <v>44561</v>
       </c>
       <c r="B684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684">
         <v>1</v>
@@ -7953,7 +7979,7 @@
         <v>44563</v>
       </c>
       <c r="B686">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C686">
         <v>1</v>
@@ -7964,10 +7990,1011 @@
         <v>44564</v>
       </c>
       <c r="B687">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C687">
         <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B688">
+        <v>3</v>
+      </c>
+      <c r="C688" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B689">
+        <v>3</v>
+      </c>
+      <c r="C689" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B690">
+        <v>3</v>
+      </c>
+      <c r="C690" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B691">
+        <v>3</v>
+      </c>
+      <c r="C691" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B692">
+        <v>6</v>
+      </c>
+      <c r="C692" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B693">
+        <v>6</v>
+      </c>
+      <c r="C693" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B694">
+        <v>7</v>
+      </c>
+      <c r="C694" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B695">
+        <v>14</v>
+      </c>
+      <c r="C695" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B696">
+        <v>8</v>
+      </c>
+      <c r="C696" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B697">
+        <v>5</v>
+      </c>
+      <c r="C697" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B698">
+        <v>5</v>
+      </c>
+      <c r="C698" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B699">
+        <v>10</v>
+      </c>
+      <c r="C699" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B700">
+        <v>10</v>
+      </c>
+      <c r="C700" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B701">
+        <v>3</v>
+      </c>
+      <c r="C701" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B702">
+        <v>7</v>
+      </c>
+      <c r="C702" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B703">
+        <v>15</v>
+      </c>
+      <c r="C703" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B704">
+        <v>7</v>
+      </c>
+      <c r="C704" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B705">
+        <v>14</v>
+      </c>
+      <c r="C705" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B706">
+        <v>8</v>
+      </c>
+      <c r="C706" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B707">
+        <v>13</v>
+      </c>
+      <c r="C707" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B708">
+        <v>16</v>
+      </c>
+      <c r="C708" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B709">
+        <v>13</v>
+      </c>
+      <c r="C709" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B710">
+        <v>11</v>
+      </c>
+      <c r="C710" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B711">
+        <v>9</v>
+      </c>
+      <c r="C711" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B712">
+        <v>11</v>
+      </c>
+      <c r="C712" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B713">
+        <v>7</v>
+      </c>
+      <c r="C713" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B714">
+        <v>8</v>
+      </c>
+      <c r="C714" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B715">
+        <v>9</v>
+      </c>
+      <c r="C715" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B716">
+        <v>13</v>
+      </c>
+      <c r="C716" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B717">
+        <v>15</v>
+      </c>
+      <c r="C717" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B718">
+        <v>7</v>
+      </c>
+      <c r="C718" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B719">
+        <v>10</v>
+      </c>
+      <c r="C719" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B720">
+        <v>4</v>
+      </c>
+      <c r="C720" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B721">
+        <v>2</v>
+      </c>
+      <c r="C721" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B722">
+        <v>4</v>
+      </c>
+      <c r="C722" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B723">
+        <v>11</v>
+      </c>
+      <c r="C723" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B724">
+        <v>10</v>
+      </c>
+      <c r="C724" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B725">
+        <v>8</v>
+      </c>
+      <c r="C725" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B726">
+        <v>6</v>
+      </c>
+      <c r="C726" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B727">
+        <v>6</v>
+      </c>
+      <c r="C727" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B728">
+        <v>5</v>
+      </c>
+      <c r="C728" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B729">
+        <v>7</v>
+      </c>
+      <c r="C729" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B730">
+        <v>5</v>
+      </c>
+      <c r="C730" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B731">
+        <v>7</v>
+      </c>
+      <c r="C731" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+      <c r="C732" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B733">
+        <v>4</v>
+      </c>
+      <c r="C733" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B734">
+        <v>6</v>
+      </c>
+      <c r="C734" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B735">
+        <v>3</v>
+      </c>
+      <c r="C735" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B736">
+        <v>4</v>
+      </c>
+      <c r="C736" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B737">
+        <v>1</v>
+      </c>
+      <c r="C737" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B738">
+        <v>3</v>
+      </c>
+      <c r="C738" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B739">
+        <v>3</v>
+      </c>
+      <c r="C739" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B740">
+        <v>4</v>
+      </c>
+      <c r="C740" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B741">
+        <v>4</v>
+      </c>
+      <c r="C741" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B742">
+        <v>2</v>
+      </c>
+      <c r="C742" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B743">
+        <v>1</v>
+      </c>
+      <c r="C743" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B744">
+        <v>1</v>
+      </c>
+      <c r="C744" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B745">
+        <v>6</v>
+      </c>
+      <c r="C745" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B746">
+        <v>2</v>
+      </c>
+      <c r="C746" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B747">
+        <v>3</v>
+      </c>
+      <c r="C747" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B748">
+        <v>2</v>
+      </c>
+      <c r="C748" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B749">
+        <v>2</v>
+      </c>
+      <c r="C749" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B750">
+        <v>3</v>
+      </c>
+      <c r="C750" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B751">
+        <v>3</v>
+      </c>
+      <c r="C751" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B752">
+        <v>1</v>
+      </c>
+      <c r="C752" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B753">
+        <v>0</v>
+      </c>
+      <c r="C753" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B754">
+        <v>0</v>
+      </c>
+      <c r="C754" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B755">
+        <v>4</v>
+      </c>
+      <c r="C755" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B756">
+        <v>0</v>
+      </c>
+      <c r="C756" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B757">
+        <v>2</v>
+      </c>
+      <c r="C757" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B758">
+        <v>1</v>
+      </c>
+      <c r="C758" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B759">
+        <v>3</v>
+      </c>
+      <c r="C759" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+      <c r="C760" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B761">
+        <v>1</v>
+      </c>
+      <c r="C761" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B762">
+        <v>1</v>
+      </c>
+      <c r="C762" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+      <c r="C763" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B764">
+        <v>1</v>
+      </c>
+      <c r="C764" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+      <c r="C765" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B766">
+        <v>1</v>
+      </c>
+      <c r="C766" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B767">
+        <v>2</v>
+      </c>
+      <c r="C767" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B768">
+        <v>0</v>
+      </c>
+      <c r="C768" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B769">
+        <v>1</v>
+      </c>
+      <c r="C769" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+      <c r="C770" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B771">
+        <v>0</v>
+      </c>
+      <c r="C771" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B772">
+        <v>0</v>
+      </c>
+      <c r="C772" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B773">
+        <v>0</v>
+      </c>
+      <c r="C773" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B774">
+        <v>1</v>
+      </c>
+      <c r="C774" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+      <c r="C775" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B776">
+        <v>0</v>
+      </c>
+      <c r="C776" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B777">
+        <v>0</v>
+      </c>
+      <c r="C777" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+      <c r="C778" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
